--- a/static/asset/files/협력사업로드양식.xlsx
+++ b/static/asset/files/협력사업로드양식.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\api.esg.com\public\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\esg.com\static\asset\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16C0544F-6E4F-42D0-8695-2A913318F017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0445752-665A-4AED-B78F-D5FD7A0E39B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4310" yWindow="5760" windowWidth="25280" windowHeight="13930" xr2:uid="{C9320EC4-E839-4DA0-B412-F9B216FC28DE}"/>
+    <workbookView xWindow="180" yWindow="1900" windowWidth="25420" windowHeight="13760" xr2:uid="{C9320EC4-E839-4DA0-B412-F9B216FC28DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,17 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>기업명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>사업자번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트기업명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -456,9 +448,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60E639C1-EDAD-4702-A264-D0DD167A8CF8}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
@@ -476,20 +470,14 @@
     <col min="12" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="51.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" ht="51.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:1" ht="53.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="53.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
